--- a/LF/TAS/Benin/bj_lf_tas2_5_partcipants_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_5_partcipants_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700DC1A-A331-4660-98CB-025B10D206CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AFA0B1-0BA3-4139-A0E0-8C5E78561D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>bj_lf_tas2_2_partcipants_202010_v2</t>
-  </si>
-  <si>
     <t>p_id_sequence</t>
   </si>
   <si>
@@ -323,22 +320,25 @@
     <t>read_only</t>
   </si>
   <si>
-    <t>5. Benin - TAS2 FL Form Participants (Octobre 2020) V3</t>
-  </si>
-  <si>
     <t>p_start</t>
   </si>
   <si>
     <t>p_end</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 120</t>
-  </si>
-  <si>
-    <t>The age must be between 5 and 120 years</t>
-  </si>
-  <si>
-    <t>L'age doit être compris entre 5 et 120 ans</t>
+    <t>The age must be between 4 and 12 years</t>
+  </si>
+  <si>
+    <t>L'age doit être compris entre 4 et 12 ans</t>
+  </si>
+  <si>
+    <t>. &gt;= 4 and . &lt;= 12</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_2_partcipants_202010_v3</t>
+  </si>
+  <si>
+    <t>5. Benin - TAS2 FL Form Participants (Octobre 2020) V4</t>
   </si>
 </sst>
 </file>
@@ -797,11 +797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
     <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -874,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>63</v>
@@ -1156,24 +1156,24 @@
         <v>23</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>63</v>
@@ -1187,21 +1187,21 @@
         <v>26</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="10"/>
       <c r="K12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>66</v>
@@ -1251,7 +1251,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1263,7 +1263,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C2">
         <v>20201006</v>
